--- a/data/ages.xlsx
+++ b/data/ages.xlsx
@@ -490,6 +490,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -598,7 +599,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1695,8 +1696,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1709,10 +1710,10 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2257,7 +2258,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>36948</v>
+        <v>26679</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,10 +2334,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>